--- a/biology/Botanique/Podocarpus_totara/Podocarpus_totara.xlsx
+++ b/biology/Botanique/Podocarpus_totara/Podocarpus_totara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Podocarpus totara, appelé aussi totara, est une espèce d'arbre conifère de la famille des Podocarpaceae, endémique de la Nouvelle-Zélande.
 </t>
@@ -511,10 +523,12 @@
           <t>Etymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Podocarpus vient du grec pous, podos, le pied et karpos le fruit en référence au pédoncule charnu des fruits.
-L'épithète d'espèce totara est le nom maori de cet arbre[2].
+L'épithète d'espèce totara est le nom maori de cet arbre.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Podocarpus totara pousse partout sur l'île du Nord et le nord-est de l'île du Sud, en plaine, en montagne et dans les forêts subalpines inférieures à des altitudes allant jusqu'à 600 m.
 </t>
@@ -574,13 +590,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des arbres à croissance lente. L’écorce est épaisse, fibreuse et sillonnée. Le bois est rouge[3]. Les feuilles sont brunâtres à vert-foncé. La taille des feuilles adultes est de 1,5 à 3 cm sur 3 ou 4 mm. Les feuilles sont lancéolées, droites à légèrement falciformes, aigües, piquantes, coriaces, vernies et sessiles[4],[5].
-Les cônes mâles sont isolés ou groupés par quatre sur un petit pédoncule, entourés par de larges écailles rigides. L’apex est petit et peu denticulé[4],[5].
-Les cônes femelles sont sur des rameaux axillaires, solitaires ou par paire, portés par un pédoncule de 2 à 3 mm de long. Réceptacle de 2 à 4 écailles pointues souvent rouges, gonflées et succulentes[4],[5].
-A maturité, les graines sont globuleuses ou ovoïdes, de 3 à 5 mm de long[4].
-Port : Au début de sa croissance, l’arbre a un port buissonnant. Ensuite, il acquiert un tronc massif supportant un abondant feuillage. Le système racinaire est très développé autour du tronc, s'élevant assez haut au-dessus du sol[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbres à croissance lente. L’écorce est épaisse, fibreuse et sillonnée. Le bois est rouge. Les feuilles sont brunâtres à vert-foncé. La taille des feuilles adultes est de 1,5 à 3 cm sur 3 ou 4 mm. Les feuilles sont lancéolées, droites à légèrement falciformes, aigües, piquantes, coriaces, vernies et sessiles,.
+Les cônes mâles sont isolés ou groupés par quatre sur un petit pédoncule, entourés par de larges écailles rigides. L’apex est petit et peu denticulé,.
+Les cônes femelles sont sur des rameaux axillaires, solitaires ou par paire, portés par un pédoncule de 2 à 3 mm de long. Réceptacle de 2 à 4 écailles pointues souvent rouges, gonflées et succulentes,.
+A maturité, les graines sont globuleuses ou ovoïdes, de 3 à 5 mm de long.
+Port : Au début de sa croissance, l’arbre a un port buissonnant. Ensuite, il acquiert un tronc massif supportant un abondant feuillage. Le système racinaire est très développé autour du tronc, s'élevant assez haut au-dessus du sol.
 </t>
         </is>
       </c>
@@ -609,11 +627,13 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 mars 2013)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 mars 2013) :
 Podocarpus totara G.Benn. ex D.Don (1832)
-Selon Tropicos                                           (26 mars 2013)[1] :
+Selon Tropicos                                           (26 mars 2013) :
 variété Podocarpus totara var. alpinus (R. Br. ex Hook. f.) Carrière
 variété Podocarpus totara var. hallii (Kirk.) Pilg.
 variété Podocarpus totara var. waihoensis Wardle</t>
@@ -644,9 +664,11 @@
           <t>Spécimens remarquables</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plus grands specimens connus de Podocarpaceae appartiennent à l'espèce totara. Un arbre appelé Pouakani près de Mangapehi, au nord-ouest de la Nouvelle-Zélande a un diamètre de 338 cm, mesuré à hauteur de poitrine humaine et une hauteur de 42,7 m. Dans le Pureora Forest Park (en), situé sur l'île du Nord, un autre spécimen a une hauteur de 27 m et un diamètre de 333 cm mesuré à hauteur de poitrine humaine[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plus grands specimens connus de Podocarpaceae appartiennent à l'espèce totara. Un arbre appelé Pouakani près de Mangapehi, au nord-ouest de la Nouvelle-Zélande a un diamètre de 338 cm, mesuré à hauteur de poitrine humaine et une hauteur de 42,7 m. Dans le Pureora Forest Park (en), situé sur l'île du Nord, un autre spécimen a une hauteur de 27 m et un diamètre de 333 cm mesuré à hauteur de poitrine humaine.
 </t>
         </is>
       </c>
@@ -675,9 +697,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce bois est utilisé par les aborigènes pour la construction de canoës, de ponts et d’appontements mais aussi pour la sculpture[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce bois est utilisé par les aborigènes pour la construction de canoës, de ponts et d’appontements mais aussi pour la sculpture.
 </t>
         </is>
       </c>
